--- a/Mars Profile page Test Conditions and Test cases Nandini.xlsx
+++ b/Mars Profile page Test Conditions and Test cases Nandini.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e815b658cd57139/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandini\Desktop\git\marsframework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="375" documentId="8_{941DB8CF-8EAD-4D7E-BE21-7CDE58EDF0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8016C3-3FBC-43F0-ACDE-07609D9F3076}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7411E-6584-4816-80BA-5837C227608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -389,9 +386,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Title</t>
-  </si>
-  <si>
     <r>
       <t>Step 5:</t>
     </r>
@@ -457,9 +451,6 @@
 work sample : no data
 Active: Active</t>
     </r>
-  </si>
-  <si>
-    <t>User should be able to enter the date in "Share Skill" page without Description</t>
   </si>
   <si>
     <t>TC_002_04</t>
@@ -501,9 +492,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Category</t>
-  </si>
-  <si>
     <t>TC_002_05</t>
   </si>
   <si>
@@ -540,9 +528,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Tags</t>
-  </si>
-  <si>
     <t>User should be able to get this message "Please complete the form correctly." and below Title field "Tags is required"</t>
   </si>
   <si>
@@ -585,9 +570,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Service Type</t>
-  </si>
-  <si>
     <t>TC_002_07</t>
   </si>
   <si>
@@ -624,9 +606,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Location Type</t>
-  </si>
-  <si>
     <t>TC_002_08</t>
   </si>
   <si>
@@ -663,9 +642,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Available days</t>
-  </si>
-  <si>
     <t>TC_002_09</t>
   </si>
   <si>
@@ -705,9 +681,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Skill Trade</t>
-  </si>
-  <si>
     <t>TC_002_10</t>
   </si>
   <si>
@@ -745,9 +718,6 @@
 work sample : no data
 Active: Active</t>
     </r>
-  </si>
-  <si>
-    <t>User should be able to enter the date in "Share Skill" page without Credit</t>
   </si>
   <si>
     <t>User should be able to get this message "Please complete the form correctly." and below Title field "Credit is required"</t>
@@ -790,9 +760,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page without Active</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -827,9 +794,6 @@
     </r>
   </si>
   <si>
-    <t>User should be able to enter the date in "Share Skill" page with Work sample</t>
-  </si>
-  <si>
     <t>TC_003_01</t>
   </si>
   <si>
@@ -1039,178 +1003,214 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Delete" icon</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to click on Delete icon </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Alert message appears</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to see an alert message appearing with a No and Yes button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click on "No" button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should able to click on "No" button and go back to Manage listing page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 6: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click on "Yes" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if the user is able to click on Delete-No button</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on Delete-Yes button</t>
+  </si>
+  <si>
+    <t>User should be able to create "Share Skill" Successfully.</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly."and below Description field "Description is required"</t>
+  </si>
+  <si>
+    <t>TC_002_12</t>
+  </si>
+  <si>
+    <t>TC_002_13</t>
+  </si>
+  <si>
+    <t>User should be able to cancel the Share skill page and it should go back Profile page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter "Logo Designer" in Title field</t>
+    </r>
+  </si>
+  <si>
+    <t>User should able to click on "Yes" button and Manage listing should be deleted and a popup message should be shown</t>
+  </si>
+  <si>
+    <t>TC_008_03</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly." and below Category field "Category is required"</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly." and below Service Type field "Service Type is required"</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly." and below Location Type field "Location Type is required"</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly." and below Available days field "Available days is required"</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly." and below Skill Trade field "Skill Trade is required"</t>
+  </si>
+  <si>
+    <t>User should be able to get this message "Please complete the form correctly." and below Active field "Active is required"</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Title</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Description</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Category</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Tags</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Service Type</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Location Type</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Available days</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Skill Trade</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Credit</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page without Active</t>
+  </si>
+  <si>
+    <t>User should be able to enter the data in "Share Skill" page with Work sample</t>
+  </si>
+  <si>
     <t>user should able to save the 
-edit date and go back to Manage 
+edit data and go back to Manage 
 Listing page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Click on "Delete" icon</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User should be able to click on Delete icon </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Alert message appears</t>
-    </r>
-  </si>
-  <si>
-    <t>User should be able to see an alert message appearing with a No and Yes button</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 6: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click on "No" button</t>
-    </r>
-  </si>
-  <si>
-    <t>User should able to click on "No" button and go back to Manage listing page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 6: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>click on "Yes" button</t>
-    </r>
-  </si>
-  <si>
-    <t>Check if the user is able to click on Delete-No button</t>
-  </si>
-  <si>
-    <t>Check if the user is able to click on Delete-Yes button</t>
-  </si>
-  <si>
-    <t>User should be able to create "Share Skill" Successfully.</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly."and below Description field "Description is required"</t>
-  </si>
-  <si>
-    <t>TC_002_12</t>
-  </si>
-  <si>
-    <t>TC_002_13</t>
-  </si>
-  <si>
-    <t>User should be able to cancel the Share skill page and it should go back Profile page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Step 5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter "Logo Designer" in Title field</t>
-    </r>
-  </si>
-  <si>
-    <t>User should able to click on "Yes" button and Manage listing should be deleted and a popup message should be shown</t>
-  </si>
-  <si>
-    <t>TC_008_03</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly." and below Category field "Category is required"</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly." and below Service Type field "Service Type is required"</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly." and below Location Type field "Location Type is required"</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly." and below Available days field "Available days is required"</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly." and below Skill Trade field "Skill Trade is required"</t>
-  </si>
-  <si>
-    <t>User should be able to get this message "Please complete the form correctly." and below Active field "Active is required"</t>
   </si>
 </sst>
 </file>
@@ -1985,14 +1985,14 @@
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
       <c r="D30" s="19" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
       <c r="D31" s="19" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2013,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2F9CAA-CAA4-4593-ACB6-A4169BA6DB1A}">
   <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,17 +2151,17 @@
         <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
     </row>
     <row r="12" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>11</v>
@@ -2205,20 +2205,20 @@
       <c r="A15" s="26"/>
       <c r="B15" s="24"/>
       <c r="C15" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="24"/>
       <c r="C16" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>12</v>
@@ -2262,20 +2262,20 @@
       <c r="A21" s="26"/>
       <c r="B21" s="28"/>
       <c r="C21" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="28"/>
       <c r="C22" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>13</v>
@@ -2293,7 +2293,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2320,20 +2320,20 @@
       <c r="A27" s="26"/>
       <c r="B27" s="28"/>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="28"/>
       <c r="C28" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>14</v>
@@ -2378,20 +2378,20 @@
       <c r="A33" s="26"/>
       <c r="B33" s="28"/>
       <c r="C33" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="28"/>
       <c r="C34" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,10 +2400,10 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>54</v>
@@ -2436,20 +2436,20 @@
       <c r="A39" s="26"/>
       <c r="B39" s="28"/>
       <c r="C39" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="28"/>
       <c r="C40" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>16</v>
@@ -2494,20 +2494,20 @@
       <c r="A45" s="26"/>
       <c r="B45" s="28"/>
       <c r="C45" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="28"/>
       <c r="C46" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>17</v>
@@ -2553,28 +2553,28 @@
       <c r="A51" s="26"/>
       <c r="B51" s="28"/>
       <c r="C51" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="28"/>
       <c r="C52" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>54</v>
@@ -2607,28 +2607,28 @@
       <c r="A56" s="26"/>
       <c r="B56" s="28"/>
       <c r="C56" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="28"/>
       <c r="C57" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>54</v>
@@ -2661,20 +2661,20 @@
       <c r="A61" s="26"/>
       <c r="B61" s="28"/>
       <c r="C61" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="28"/>
       <c r="C62" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,7 +2684,7 @@
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>20</v>
@@ -2720,20 +2720,20 @@
       <c r="A67" s="26"/>
       <c r="B67" s="28"/>
       <c r="C67" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="28"/>
       <c r="C68" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>21</v>
@@ -2779,20 +2779,20 @@
       <c r="A73" s="26"/>
       <c r="B73" s="28"/>
       <c r="C73" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="28"/>
       <c r="C74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="26" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>23</v>
@@ -2838,20 +2838,20 @@
       <c r="A79" s="26"/>
       <c r="B79" s="28"/>
       <c r="C79" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="28"/>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,7 +2860,7 @@
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>26</v>
@@ -2889,23 +2889,23 @@
         <v>58</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="23"/>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B87" s="27" t="s">
         <v>30</v>
@@ -2924,23 +2924,23 @@
         <v>56</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="28"/>
       <c r="C89" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>33</v>
@@ -2959,33 +2959,33 @@
         <v>56</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="28"/>
       <c r="C93" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="28"/>
       <c r="C94" s="20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>36</v>
@@ -3004,33 +3004,33 @@
         <v>56</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="28"/>
       <c r="C98" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="28"/>
       <c r="C99" s="21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B102" s="27" t="s">
         <v>39</v>
@@ -3049,33 +3049,33 @@
         <v>56</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="28"/>
       <c r="C104" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="28"/>
       <c r="C105" s="20" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>40</v>
@@ -3094,53 +3094,53 @@
         <v>56</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="28"/>
       <c r="C109" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="28"/>
       <c r="C110" s="20" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="28"/>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" thickBot="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="26"/>
       <c r="B112" s="28"/>
       <c r="C112" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>42</v>
@@ -3159,33 +3159,33 @@
         <v>56</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="28"/>
       <c r="C116" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="28"/>
       <c r="C117" s="20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>43</v>
@@ -3204,53 +3204,53 @@
         <v>56</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="28"/>
       <c r="C122" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="28"/>
       <c r="C123" s="20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="28"/>
       <c r="C124" s="20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="28"/>
       <c r="C125" s="20" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>44</v>
@@ -3269,97 +3269,97 @@
         <v>56</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="26"/>
       <c r="B129" s="28"/>
       <c r="C129" s="13" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="28"/>
       <c r="C130" s="20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="28"/>
       <c r="C131" s="20" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="28"/>
       <c r="C132" s="20" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A120:A125"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A30:A34"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A120:A125"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="B127:B132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
